--- a/SuppXLS/Scen_Z_CaseSpecific.xlsx
+++ b/SuppXLS/Scen_Z_CaseSpecific.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_Final_221209\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_230327\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB94672B-BEB1-4452-8CD2-83847A3578E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9B1D1E-DA12-405B-BA69-0BD924117737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -261,10 +261,16 @@
     <t>mungas</t>
   </si>
   <si>
-    <t>*GAS</t>
-  </si>
-  <si>
-    <t>_~TFM_INS</t>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>RH*_R_ELC_*,CH*_R_ELC_*,MH*_R_ELC_*</t>
+  </si>
+  <si>
+    <t>*NCAP_START</t>
+  </si>
+  <si>
+    <t>RH*_HTH_*,CH*_HTH_*,MH*_HTH_*,-*_HTH_100</t>
   </si>
 </sst>
 </file>
@@ -429,31 +435,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -462,22 +467,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -823,375 +820,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="10.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="H7" s="12"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="H8" s="12"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="H9" s="12"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H10" s="22">
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="12">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H14" s="12">
+        <v>2102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2101</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="12">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="12">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="12">
         <v>2100</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="H8" s="13"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="11" t="s">
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2101</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2102</v>
+      </c>
+      <c r="L20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E22" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H22" s="12">
         <v>10</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J22" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20" t="s">
+      <c r="N22" s="19"/>
+      <c r="O22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="13">
-        <v>20</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="13">
-        <v>2102</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="13">
-        <v>2101</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="H15" s="13"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="13">
-        <v>10</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="13">
-        <v>50</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="20"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="13">
-        <v>2100</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2101</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="13">
-        <v>2102</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="13">
-        <v>10</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="20"/>
-      <c r="R22" s="11" t="s">
+      <c r="P22" s="19"/>
+      <c r="R22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1206,31 +1184,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="11"/>
-    <col min="18" max="18" width="25.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1242,15 +1217,15 @@
       <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
@@ -1303,123 +1278,103 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H6" s="22"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H7" s="22"/>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="23"/>
-      <c r="R9" s="11" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="R9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="23"/>
-      <c r="R11" s="15"/>
+      <c r="H11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="R12" s="15"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R13" s="15"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="H15" s="13"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="H16" s="13"/>
+      <c r="R16" s="14"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="14"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="14"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
